--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chavezde\Documents\LiberacionAutomatizada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9842B0-85A2-415D-9756-22C5B069E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639678A-726B-43AC-B23D-84BEE9972F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naps" sheetId="1" r:id="rId1"/>
     <sheet name="Liberacion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="100">
   <si>
     <t>HUB</t>
   </si>
@@ -53,21 +66,6 @@
     <t>LONGITUD</t>
   </si>
   <si>
-    <t>MIRAFLORES</t>
-  </si>
-  <si>
-    <t>G2C007</t>
-  </si>
-  <si>
-    <t>OLT-ACC-PAZULTRES-01</t>
-  </si>
-  <si>
-    <t>BATMAN0777</t>
-  </si>
-  <si>
-    <t>BATMAN078</t>
-  </si>
-  <si>
     <t>HOSTNAME</t>
   </si>
   <si>
@@ -128,31 +126,214 @@
     <t>DELICIAS</t>
   </si>
   <si>
-    <t>OLT01-ACC-RB_ENTRERIOS</t>
-  </si>
-  <si>
-    <t>HUAWEI</t>
-  </si>
-  <si>
     <t>MASIVO</t>
   </si>
   <si>
     <t>CERRADA</t>
   </si>
   <si>
-    <t>GREENFIELD</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>SOTONOVO + TERRASOL + PALMAR DEL RIO + RIVER PARK</t>
-  </si>
-  <si>
-    <t>SAMBORONDON</t>
-  </si>
-  <si>
-    <t>BATMAN</t>
+    <t>OLT-ACC-REUBLARIOJA-01</t>
+  </si>
+  <si>
+    <t>PROCISA</t>
+  </si>
+  <si>
+    <t>BROWNFIELD</t>
+  </si>
+  <si>
+    <t>URB. LA RIOJA ETAPA ASTURIAS Y ALMERIA</t>
+  </si>
+  <si>
+    <t>LA AURORA</t>
+  </si>
+  <si>
+    <t>G6C047</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP_B01</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP02</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP03</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP04</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP_B05</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP06</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP07</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP08</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP_B09</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP10</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP11</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP12</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP_B13</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP14</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP15</t>
+  </si>
+  <si>
+    <t>G06-10_T38D1NP16</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP_B01</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP02</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP03</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP04</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP_B05</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP06</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP07</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP08</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP_B09</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP10</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP11</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP12</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP_B13</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP14</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP15</t>
+  </si>
+  <si>
+    <t>G06-10_T38D2NP16</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP_B01</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP02</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP03</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP04</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP_B05</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP06</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP07</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP08</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP_B09</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP10</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP11</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP12</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP_B13</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP14</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP15</t>
+  </si>
+  <si>
+    <t>G06-10_T38D3NP16</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP_B01</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP02</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP03</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP_B04</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP05</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP06</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP07</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP_B08</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP09</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP10</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP11</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP12</t>
+  </si>
+  <si>
+    <t>G06-10_T38D4NP13</t>
   </si>
 </sst>
 </file>
@@ -172,24 +353,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -213,23 +376,36 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -245,18 +421,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -359,19 +535,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -383,44 +546,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,49 +591,80 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 18" xfId="1" xr:uid="{881EDFDD-1D8C-4AE5-BCF6-28D6E5E9EF2A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,369 +967,2077 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="23">
+        <v>16</v>
+      </c>
+      <c r="I2" s="24">
+        <v>-79.933128999999994</v>
+      </c>
+      <c r="J2" s="24">
+        <v>-2.0535030000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="23">
+        <v>16</v>
+      </c>
+      <c r="I3" s="24">
+        <v>-79.932198</v>
+      </c>
+      <c r="J3" s="24">
+        <v>-2.0540600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="23">
+        <v>16</v>
+      </c>
+      <c r="I4" s="24">
+        <v>-79.931807000000006</v>
+      </c>
+      <c r="J4" s="24">
+        <v>-2.0537000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="23">
+        <v>16</v>
+      </c>
+      <c r="I5" s="24">
+        <v>-79.931466</v>
+      </c>
+      <c r="J5" s="24">
+        <v>-2.0530979999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="23">
+        <v>16</v>
+      </c>
+      <c r="I6" s="24">
+        <v>-79.932378</v>
+      </c>
+      <c r="J6" s="24">
+        <v>-2.0533540000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="23">
+        <v>16</v>
+      </c>
+      <c r="I7" s="24">
+        <v>-79.932027000000005</v>
+      </c>
+      <c r="J7" s="24">
+        <v>-2.0527850000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="23">
+        <v>16</v>
+      </c>
+      <c r="I8" s="24">
+        <v>-79.931601999999998</v>
+      </c>
+      <c r="J8" s="24">
+        <v>-2.0516610000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="23">
+        <v>16</v>
+      </c>
+      <c r="I9" s="24">
+        <v>-79.932091999999997</v>
+      </c>
+      <c r="J9" s="24">
+        <v>-2.052146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="23">
+        <v>16</v>
+      </c>
+      <c r="I10" s="24">
+        <v>-79.931567999999999</v>
+      </c>
+      <c r="J10" s="24">
+        <v>-2.0519940000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="23">
+        <v>16</v>
+      </c>
+      <c r="I11" s="24">
+        <v>-79.931366999999995</v>
+      </c>
+      <c r="J11" s="24">
+        <v>-2.0516369999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="23">
+        <v>16</v>
+      </c>
+      <c r="I12" s="24">
+        <v>-79.932167000000007</v>
+      </c>
+      <c r="J12" s="24">
+        <v>-2.051558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="23">
+        <v>16</v>
+      </c>
+      <c r="I13" s="24">
+        <v>-79.932428000000002</v>
+      </c>
+      <c r="J13" s="24">
+        <v>-2.0519780000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="23">
+        <v>16</v>
+      </c>
+      <c r="I14" s="24">
+        <v>-79.932933000000006</v>
+      </c>
+      <c r="J14" s="24">
+        <v>-2.0528369999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="23">
+        <v>16</v>
+      </c>
+      <c r="I15" s="24">
+        <v>-79.932806999999997</v>
+      </c>
+      <c r="J15" s="24">
+        <v>-2.0526119999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
+        <v>3</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="23">
+        <v>16</v>
+      </c>
+      <c r="I16" s="24">
+        <v>-79.932603999999998</v>
+      </c>
+      <c r="J16" s="24">
+        <v>-2.053058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="23">
+        <v>16</v>
+      </c>
+      <c r="I17" s="24">
+        <v>-79.932355000000001</v>
+      </c>
+      <c r="J17" s="24">
+        <v>-2.0525890000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="23">
+        <v>16</v>
+      </c>
+      <c r="I18" s="24">
+        <v>-79.930753999999993</v>
+      </c>
+      <c r="J18" s="24">
+        <v>-2.05281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21">
+        <v>4</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="23">
+        <v>16</v>
+      </c>
+      <c r="I19" s="24">
+        <v>-79.930440000000004</v>
+      </c>
+      <c r="J19" s="24">
+        <v>-2.052511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="23">
+        <v>16</v>
+      </c>
+      <c r="I20" s="24">
+        <v>-79.930170000000004</v>
+      </c>
+      <c r="J20" s="24">
+        <v>-2.0524170000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21">
+        <v>4</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="23">
+        <v>16</v>
+      </c>
+      <c r="I21" s="24">
+        <v>-79.930245999999997</v>
+      </c>
+      <c r="J21" s="24">
+        <v>-2.051879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>5</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="23">
+        <v>16</v>
+      </c>
+      <c r="I22" s="24">
+        <v>-79.931427999999997</v>
+      </c>
+      <c r="J22" s="24">
+        <v>-2.0539369999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21">
+        <v>5</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="23">
+        <v>16</v>
+      </c>
+      <c r="I23" s="24">
+        <v>-79.931162999999998</v>
+      </c>
+      <c r="J23" s="24">
+        <v>-2.0534979999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="23">
+        <v>16</v>
+      </c>
+      <c r="I24" s="24">
+        <v>-79.930982999999998</v>
+      </c>
+      <c r="J24" s="24">
+        <v>-2.0522499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21">
+        <v>5</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="23">
+        <v>16</v>
+      </c>
+      <c r="I25" s="24">
+        <v>-79.931194000000005</v>
+      </c>
+      <c r="J25" s="24">
+        <v>-2.0526010000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
+        <v>6</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="23">
+        <v>16</v>
+      </c>
+      <c r="I26" s="24">
+        <v>-79.930629999999994</v>
+      </c>
+      <c r="J26" s="24">
+        <v>-2.0512670000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21">
+        <v>6</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="23">
+        <v>16</v>
+      </c>
+      <c r="I27" s="24">
+        <v>-79.929958999999997</v>
+      </c>
+      <c r="J27" s="24">
+        <v>-2.051542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21">
+        <v>6</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="23">
+        <v>16</v>
+      </c>
+      <c r="I28" s="24">
+        <v>-79.930651999999995</v>
+      </c>
+      <c r="J28" s="24">
+        <v>-2.0516100000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+      <c r="F29" s="21">
+        <v>6</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="23">
+        <v>16</v>
+      </c>
+      <c r="I29" s="24">
+        <v>-79.931211000000005</v>
+      </c>
+      <c r="J29" s="24">
+        <v>-2.051933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21">
+        <v>7</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="23">
+        <v>16</v>
+      </c>
+      <c r="I30" s="24">
+        <v>-79.932106000000005</v>
+      </c>
+      <c r="J30" s="24">
+        <v>-2.0534569999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21">
+        <v>7</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="23">
+        <v>16</v>
+      </c>
+      <c r="I31" s="24">
+        <v>-79.931793999999996</v>
+      </c>
+      <c r="J31" s="24">
+        <v>-2.0529169999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21">
+        <v>7</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="23">
+        <v>16</v>
+      </c>
+      <c r="I32" s="24">
+        <v>-79.931691999999998</v>
+      </c>
+      <c r="J32" s="24">
+        <v>-2.0527609999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21">
+        <v>7</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="23">
+        <v>16</v>
+      </c>
+      <c r="I33" s="24">
+        <v>-79.931477999999998</v>
+      </c>
+      <c r="J33" s="24">
+        <v>-2.052378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21">
+        <v>8</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="23">
+        <v>16</v>
+      </c>
+      <c r="I34" s="25">
+        <v>-79.930041000000003</v>
+      </c>
+      <c r="J34" s="25">
+        <v>9773020.1113000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1</v>
+      </c>
+      <c r="F35" s="21">
+        <v>8</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="23">
+        <v>16</v>
+      </c>
+      <c r="I35" s="25">
+        <v>-79.929878000000002</v>
+      </c>
+      <c r="J35" s="25">
+        <v>-2.0534430000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="21">
+        <v>8</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="23">
+        <v>16</v>
+      </c>
+      <c r="I36" s="25">
+        <v>-79.930094999999994</v>
+      </c>
+      <c r="J36" s="25">
+        <v>-2.0536509999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1</v>
+      </c>
+      <c r="F37" s="21">
+        <v>8</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="23">
+        <v>16</v>
+      </c>
+      <c r="I37" s="25">
+        <v>-79.929323999999994</v>
+      </c>
+      <c r="J37" s="25">
+        <v>-2.0533760000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1</v>
+      </c>
+      <c r="F38" s="21">
+        <v>9</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="23">
+        <v>16</v>
+      </c>
+      <c r="I38" s="26">
+        <v>-79.930905999999993</v>
+      </c>
+      <c r="J38" s="26">
+        <v>9772973.2775599994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="21">
+        <v>9</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="23">
+        <v>16</v>
+      </c>
+      <c r="I39" s="25">
+        <v>-79.930582999999999</v>
+      </c>
+      <c r="J39" s="25">
+        <v>-2.0530659999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21">
+        <v>9</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="23">
+        <v>16</v>
+      </c>
+      <c r="I40" s="25">
+        <v>-79.930271000000005</v>
+      </c>
+      <c r="J40" s="25">
+        <v>-2.0528119999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <v>9</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="23">
+        <v>16</v>
+      </c>
+      <c r="I41" s="25">
+        <v>-79.929502999999997</v>
+      </c>
+      <c r="J41" s="25">
+        <v>-2.0528360000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1</v>
+      </c>
+      <c r="F42" s="21">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G42" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="23">
+        <v>16</v>
+      </c>
+      <c r="I42" s="25">
+        <v>-79.929913999999997</v>
+      </c>
+      <c r="J42" s="25">
+        <v>9772811.6776599996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21">
+        <v>10</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="23">
+        <v>16</v>
+      </c>
+      <c r="I43" s="26">
+        <v>-79.929660999999996</v>
+      </c>
+      <c r="J43" s="26">
+        <v>-2.0543979999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
+      </c>
+      <c r="F44" s="21">
+        <v>10</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="23">
+        <v>16</v>
+      </c>
+      <c r="I44" s="25">
+        <v>-79.929464999999993</v>
+      </c>
+      <c r="J44" s="25">
+        <v>-2.0540449999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1</v>
+      </c>
+      <c r="F45" s="21">
+        <v>10</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="23">
+        <v>16</v>
+      </c>
+      <c r="I45" s="25">
+        <v>-79.929848000000007</v>
+      </c>
+      <c r="J45" s="25">
+        <v>-2.0539900000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1</v>
+      </c>
+      <c r="F46" s="21">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G46" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="23">
+        <v>16</v>
+      </c>
+      <c r="I46" s="25">
+        <v>-79.930306999999999</v>
+      </c>
+      <c r="J46" s="25">
+        <v>9772987.6694600005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
+        <v>1</v>
+      </c>
+      <c r="F47" s="21">
+        <v>11</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="23">
+        <v>16</v>
+      </c>
+      <c r="I47" s="25">
+        <v>-79.930614000000006</v>
+      </c>
+      <c r="J47" s="25">
+        <v>-2.0540219999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21">
+        <v>11</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="23">
+        <v>16</v>
+      </c>
+      <c r="I48" s="26">
+        <v>-79.930570000000003</v>
+      </c>
+      <c r="J48" s="26">
+        <v>-2.054351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="21">
+        <v>1</v>
+      </c>
+      <c r="F49" s="21">
+        <v>11</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="23">
+        <v>16</v>
+      </c>
+      <c r="I49" s="25">
+        <v>-79.930284</v>
+      </c>
+      <c r="J49" s="25">
+        <v>-2.054522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
+      <c r="F50" s="21">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7">
-        <v>56</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="G50" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="23">
+        <v>16</v>
+      </c>
+      <c r="I50" s="25">
+        <v>-79.930673999999996</v>
+      </c>
+      <c r="J50" s="25">
+        <v>9772736.72487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21">
+        <v>1</v>
+      </c>
+      <c r="F51" s="21">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G51" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="23">
+        <v>16</v>
+      </c>
+      <c r="I51" s="25">
+        <v>-79.930235999999994</v>
+      </c>
+      <c r="J51" s="25">
+        <v>-2.0554929999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
+        <v>1</v>
+      </c>
+      <c r="F52" s="21">
+        <v>12</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="23">
+        <v>16</v>
+      </c>
+      <c r="I52" s="25">
+        <v>-79.930565000000001</v>
+      </c>
+      <c r="J52" s="25">
+        <v>-2.0552290000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="21">
+        <v>1</v>
+      </c>
+      <c r="F53" s="21">
+        <v>12</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="23"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="21">
+        <v>1</v>
+      </c>
+      <c r="F54" s="21">
         <v>13</v>
       </c>
-      <c r="H2" s="3">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9">
-        <v>-2.1892265513483098</v>
-      </c>
-      <c r="J2" s="9">
-        <v>-79.994163867331395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
-        <v>56</v>
-      </c>
-      <c r="F3" s="7">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G54" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="23">
+        <v>16</v>
+      </c>
+      <c r="I54" s="26">
+        <v>-79.930449999999993</v>
+      </c>
+      <c r="J54" s="26">
+        <v>9772844.1029499993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="21">
+        <v>1</v>
+      </c>
+      <c r="F55" s="21">
+        <v>13</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="23">
+        <v>16</v>
+      </c>
+      <c r="I55" s="25">
+        <v>-79.931139000000002</v>
+      </c>
+      <c r="J55" s="25">
+        <v>-2.0543689999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="21">
+        <v>1</v>
+      </c>
+      <c r="F56" s="21">
+        <v>13</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="23">
+        <v>16</v>
+      </c>
+      <c r="I56" s="25">
+        <v>-79.931241</v>
+      </c>
+      <c r="J56" s="25">
+        <v>-2.0548899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="21">
+        <v>1</v>
+      </c>
+      <c r="F57" s="21">
+        <v>13</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="23">
+        <v>16</v>
+      </c>
+      <c r="I57" s="25">
+        <v>-79.931544000000002</v>
+      </c>
+      <c r="J57" s="25">
+        <v>-2.055415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="21">
+        <v>1</v>
+      </c>
+      <c r="F58" s="21">
         <v>14</v>
       </c>
-      <c r="H3" s="3">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9">
-        <v>-2.1892265513483098</v>
-      </c>
-      <c r="J3" s="9">
-        <v>-79.994163867331395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="G58" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="23">
+        <v>16</v>
+      </c>
+      <c r="I58" s="25">
+        <v>-79.931045999999995</v>
+      </c>
+      <c r="J58" s="25">
+        <v>9772947.3762899991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="21">
+        <v>1</v>
+      </c>
+      <c r="F59" s="21">
+        <v>14</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="23">
+        <v>16</v>
+      </c>
+      <c r="I59" s="26">
+        <v>-79.931631999999993</v>
+      </c>
+      <c r="J59" s="26">
+        <v>-2.0548609999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="21">
+        <v>1</v>
+      </c>
+      <c r="F60" s="21">
+        <v>14</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="23">
+        <v>16</v>
+      </c>
+      <c r="I60" s="25">
+        <v>-79.931938000000002</v>
+      </c>
+      <c r="J60" s="25">
+        <v>-2.0554039999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="21">
+        <v>1</v>
+      </c>
+      <c r="F61" s="21">
+        <v>14</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="23">
+        <v>16</v>
+      </c>
+      <c r="I61" s="25">
+        <v>-79.931877999999998</v>
+      </c>
+      <c r="J61" s="25">
+        <v>-2.0556899999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
+        <v>1</v>
+      </c>
+      <c r="F62" s="21">
+        <v>15</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="23">
+        <v>16</v>
+      </c>
+      <c r="I62" s="25">
+        <v>-79.930982</v>
+      </c>
+      <c r="J62" s="25">
+        <v>-2.0552160000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="21">
+        <v>1</v>
+      </c>
+      <c r="F63" s="21">
+        <v>15</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" s="23">
+        <v>16</v>
+      </c>
+      <c r="I63" s="25">
+        <v>-79.931173000000001</v>
+      </c>
+      <c r="J63" s="25">
+        <v>-2.0555500000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="21">
+        <v>1</v>
+      </c>
+      <c r="F64" s="21">
+        <v>15</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="21">
+        <v>0</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1</v>
+      </c>
+      <c r="F65" s="21">
+        <v>15</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,142 +3048,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61002D-2367-4281-A17D-307204EB691D}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="J1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="N1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="P1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="Q1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="R1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="S1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="T1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="H2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="24">
-        <v>15</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="24">
-        <v>40</v>
-      </c>
-      <c r="M2" s="24">
-        <v>9</v>
-      </c>
-      <c r="N2" s="24">
-        <v>338</v>
-      </c>
-      <c r="O2" s="24">
-        <v>0</v>
-      </c>
-      <c r="P2" s="24">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>60</v>
-      </c>
-      <c r="R2" s="24">
-        <v>0</v>
-      </c>
-      <c r="S2" s="24">
-        <v>10</v>
-      </c>
-      <c r="T2" s="24">
-        <v>462</v>
-      </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="25">
-        <v>568</v>
+      <c r="J2" s="18">
+        <v>38</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="17">
+        <v>81</v>
+      </c>
+      <c r="M2" s="18">
+        <v>4</v>
+      </c>
+      <c r="N2" s="18">
+        <v>864</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>1</v>
+      </c>
+      <c r="T2" s="18">
+        <v>952</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="20">
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chavezde\Documents\LiberacionAutomatizada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639678A-726B-43AC-B23D-84BEE9972F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25B1DA7-565E-4A3B-A0B6-F91F05A721C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naps" sheetId="1" r:id="rId1"/>
@@ -330,10 +330,10 @@
     <t>G06-10_T38D4NP11</t>
   </si>
   <si>
-    <t>G06-10_T38D4NP12</t>
-  </si>
-  <si>
-    <t>G06-10_T38D4NP13</t>
+    <t>BATMAN1</t>
+  </si>
+  <si>
+    <t>BATMAN21</t>
   </si>
 </sst>
 </file>
@@ -969,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J65"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,7 +2947,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H62" s="23">
         <v>16</v>
@@ -2979,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H63" s="23">
         <v>16</v>
@@ -3048,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61002D-2367-4281-A17D-307204EB691D}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
